--- a/resource/EI实验结果.xlsx
+++ b/resource/EI实验结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\SoTuRonn\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C056C-EFDE-4F51-8FFB-A478A9836B7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698DCF86-ACCE-4250-8D0B-E607FED9343A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="2070" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="83">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>SlideShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,6 +649,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,22 +694,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -981,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -999,34 +1003,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="58" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="5" t="s">
         <v>42</v>
       </c>
@@ -1368,13 +1372,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9">
         <v>300</v>
@@ -1925,32 +1929,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="47" t="s">
         <v>63</v>
       </c>
@@ -2615,10 +2619,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="25">
@@ -2639,10 +2643,10 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="66"/>
+      <c r="B29" s="71"/>
       <c r="E29" s="52">
         <v>1.04</v>
       </c>
@@ -2657,10 +2661,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="67"/>
+      <c r="B30" s="72"/>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="55">
@@ -2681,15 +2685,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2719,14 +2723,14 @@
       <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="69"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
@@ -3129,50 +3133,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CC2FAF-ADCB-4685-9680-84E2B4AEF22E}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9" style="70"/>
-    <col min="7" max="7" width="0" style="70" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="70"/>
-    <col min="9" max="10" width="0" style="70" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="70" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="70"/>
+    <col min="1" max="1" width="5.25" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="58"/>
+    <col min="7" max="7" width="0" style="58" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="58"/>
+    <col min="9" max="10" width="0" style="58" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3206,10 +3210,10 @@
       <c r="K2" s="8">
         <v>-6.8159221166208081E-2</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -3241,10 +3245,10 @@
       <c r="K3" s="8">
         <v>-5.8463200647483539E-2</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -3276,10 +3280,10 @@
       <c r="K4" s="8">
         <v>-3.0070399308517293E-2</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -3311,10 +3315,10 @@
       <c r="K5" s="8">
         <v>-7.3325225358109966E-2</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -3346,62 +3350,62 @@
       <c r="K6" s="8">
         <v>-0.18445937648028912</v>
       </c>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="25">
-        <f>AVERAGE(C2:C6)</f>
+        <f t="shared" ref="C7:K7" si="0">AVERAGE(C2:C6)</f>
         <v>-4.9399999999999999E-2</v>
       </c>
       <c r="D7" s="25">
-        <f>AVERAGE(D2:D6)</f>
+        <f t="shared" si="0"/>
         <v>-7.4660000000000004E-2</v>
       </c>
       <c r="E7" s="25">
-        <f>AVERAGE(E2:E6)</f>
+        <f t="shared" si="0"/>
         <v>-7.5740000000000002E-2</v>
       </c>
       <c r="F7" s="25">
-        <f>AVERAGE(F2:F6)</f>
+        <f t="shared" si="0"/>
         <v>-8.6739999999999998E-2</v>
       </c>
       <c r="G7" s="25">
-        <f>AVERAGE(G2:G6)</f>
+        <f t="shared" si="0"/>
         <v>-5.058E-2</v>
       </c>
       <c r="H7" s="25">
-        <f>AVERAGE(H2:H6)</f>
+        <f t="shared" si="0"/>
         <v>-6.9900000000000004E-2</v>
       </c>
       <c r="I7" s="25" t="e">
-        <f>AVERAGE(I2:I6)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="25" t="e">
-        <f>AVERAGE(J2:J6)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="25">
-        <f>AVERAGE(K2:K6)</f>
+        <f t="shared" si="0"/>
         <v>-8.2895484592121593E-2</v>
       </c>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="52">
         <f>(98+97+97)/3/100</f>
         <v>0.97333333333333327</v>
@@ -3427,43 +3431,43 @@
       <c r="K8" s="52">
         <v>1.04</v>
       </c>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76">
+      <c r="B9" s="77"/>
+      <c r="C9" s="61">
         <f>(100+99+99)/3/100</f>
         <v>0.99333333333333329</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="61">
         <v>0.99</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="61">
         <v>0.98</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="61">
         <f>(195+195+197)/3/100</f>
         <v>1.9566666666666666</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76">
+      <c r="G9" s="61"/>
+      <c r="H9" s="61">
         <v>1.03</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76">
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61">
         <v>0.95</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -3472,33 +3476,33 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="59">
         <v>-0.11</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="59">
         <v>-0.13869999999999999</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="59">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="59">
         <v>-0.14360000000000001</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="59">
         <v>-8.4099999999999994E-2</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="59">
         <v>-0.14219999999999999</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
       <c r="K13" s="8">
         <v>-9.1305135597465503E-2</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/resource/EI实验结果.xlsx
+++ b/resource/EI实验结果.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\SoTuRonn\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698DCF86-ACCE-4250-8D0B-E607FED9343A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51543F04-5FC6-473C-BC46-F493141C2014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2040" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3 (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="90">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,36 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H.265 + R-MED 
-vs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.265 bypass 
-TransQuant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.265
-RDPCM [5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.266 bypass 
-TransQuant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.266
-BDPCM [1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.266 + R-MED
-vs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +312,52 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2560x1600</t>
+  </si>
+  <si>
+    <t>1920x1080</t>
+  </si>
+  <si>
+    <t>832x480</t>
+  </si>
+  <si>
+    <t>416x240</t>
+  </si>
+  <si>
+    <t>1280x720</t>
+  </si>
+  <si>
+    <t>1024x768</t>
+  </si>
+  <si>
+    <t>H.266+R-MED vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.265+R-MED vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bypass TransQuant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDPCM [5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDPCM [1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypass TransQuant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDPCM\upcite{H266Overview}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +438,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -478,11 +495,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,16 +660,10 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,6 +678,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,9 +705,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,6 +714,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -701,6 +727,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1372,7 +1407,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
@@ -1907,19 +1942,785 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF1F13C-4775-4AF7-A1A2-40B25D98C6F8}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="48" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="48" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="48" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="48" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="48" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="48" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="48"/>
+    <col min="12" max="12" width="9.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="48"/>
+    <col min="14" max="14" width="10.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="72"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="9">
+        <v>150</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-0.11095953848136603</v>
+      </c>
+      <c r="F3" s="49">
+        <v>5.9939775018571582E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>-9.6714172635600559E-2</v>
+      </c>
+      <c r="H3" s="49">
+        <v>5.9890765730923494E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="79"/>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="9">
+        <v>150</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-0.10098315237712187</v>
+      </c>
+      <c r="F4" s="49">
+        <v>3.5434219827300772E-2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>-8.5999893124358837E-2</v>
+      </c>
+      <c r="H4" s="49">
+        <v>3.7671738039464678E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="9">
+        <v>500</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-2.1931170457998857E-2</v>
+      </c>
+      <c r="F5" s="49">
+        <v>4.8780746732910813E-3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-1.4168213476831906E-2</v>
+      </c>
+      <c r="H5" s="49">
+        <v>5.2146188113648892E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="79"/>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="9">
+        <v>600</v>
+      </c>
+      <c r="E6" s="8">
+        <v>-5.4281050239151557E-2</v>
+      </c>
+      <c r="F6" s="49">
+        <v>9.5763382925902092E-3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>-4.1640738225098187E-2</v>
+      </c>
+      <c r="H6" s="49">
+        <v>1.1479736071376071E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="79"/>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="9">
+        <v>500</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-2.9238177476898872E-2</v>
+      </c>
+      <c r="F7" s="49">
+        <v>9.8702513679342265E-3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-2.1353363057088424E-2</v>
+      </c>
+      <c r="H7" s="49">
+        <v>1.0532115562873126E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="79"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="9">
+        <v>240</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-6.8159221166208081E-2</v>
+      </c>
+      <c r="F8" s="49">
+        <v>2.6309169608702065E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-5.9630696121610441E-2</v>
+      </c>
+      <c r="H8" s="49">
+        <v>3.3530197630592694E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="9">
+        <v>240</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-5.8463200647483539E-2</v>
+      </c>
+      <c r="F9" s="49">
+        <v>2.2636495366830461E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>-4.8717222502321703E-2</v>
+      </c>
+      <c r="H9" s="49">
+        <v>2.583539252662501E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="79"/>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="9">
+        <v>500</v>
+      </c>
+      <c r="E10" s="8">
+        <v>-2.6082558902753517E-2</v>
+      </c>
+      <c r="F10" s="49">
+        <v>1.1441078991314135E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>-1.9234642880217697E-2</v>
+      </c>
+      <c r="H10" s="49">
+        <v>1.2184368122809843E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="79"/>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="9">
+        <v>600</v>
+      </c>
+      <c r="E11" s="8">
+        <v>-4.161459718160064E-2</v>
+      </c>
+      <c r="F11" s="49">
+        <v>6.6320816921751208E-3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-3.0967426596376076E-2</v>
+      </c>
+      <c r="H11" s="49">
+        <v>8.5574131833144849E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="79"/>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="9">
+        <v>500</v>
+      </c>
+      <c r="E12" s="8">
+        <v>-3.7985944544457334E-2</v>
+      </c>
+      <c r="F12" s="49">
+        <v>5.1244809313068379E-3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>-2.6466162940794395E-2</v>
+      </c>
+      <c r="H12" s="49">
+        <v>6.8580044276041708E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="79"/>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="9">
+        <v>300</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-7.029437474121443E-2</v>
+      </c>
+      <c r="F13" s="49">
+        <v>2.6379802627931475E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-6.1331820163450027E-2</v>
+      </c>
+      <c r="H13" s="49">
+        <v>3.2470976064210982E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="9">
+        <v>500</v>
+      </c>
+      <c r="E14" s="8">
+        <v>-9.1019643189264199E-2</v>
+      </c>
+      <c r="F14" s="49">
+        <v>1.9234416487545834E-2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-7.7144004199993829E-2</v>
+      </c>
+      <c r="H14" s="49">
+        <v>2.6944467502282726E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="79"/>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="9">
+        <v>500</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-4.113398216284038E-2</v>
+      </c>
+      <c r="F15" s="49">
+        <v>1.9270096876351187E-2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>-3.1454427160347784E-2</v>
+      </c>
+      <c r="H15" s="49">
+        <v>7.4847374847374845E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="79"/>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="9">
+        <v>600</v>
+      </c>
+      <c r="E16" s="8">
+        <v>-3.0966163113558286E-2</v>
+      </c>
+      <c r="F16" s="49">
+        <v>4.8139776406622278E-3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>-2.2380706033059888E-2</v>
+      </c>
+      <c r="H16" s="49">
+        <v>5.5759502453670414E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="79"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9">
+        <v>300</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-8.2944362026751581E-2</v>
+      </c>
+      <c r="F17" s="49">
+        <v>3.5318809229501445E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-7.2300039438698269E-2</v>
+      </c>
+      <c r="H17" s="49">
+        <v>3.5753384422311824E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="9">
+        <v>600</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-9.2313913306388037E-2</v>
+      </c>
+      <c r="F18" s="49">
+        <v>3.833096709958983E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>-7.9164082896560989E-2</v>
+      </c>
+      <c r="H18" s="49">
+        <v>3.9722239188537414E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="79"/>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="9">
+        <v>600</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-6.9902322992054247E-2</v>
+      </c>
+      <c r="F19" s="49">
+        <v>2.5809304180465731E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-6.1340816322162359E-2</v>
+      </c>
+      <c r="H19" s="49">
+        <v>3.0404835250887146E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="79"/>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="9">
+        <v>600</v>
+      </c>
+      <c r="E20" s="8">
+        <v>-7.3534509124273631E-2</v>
+      </c>
+      <c r="F20" s="49">
+        <v>2.5950532897009923E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>-6.3990933824706192E-2</v>
+      </c>
+      <c r="H20" s="49">
+        <v>2.8152450989381798E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="79"/>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="9">
+        <v>600</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-9.9318148905836012E-2</v>
+      </c>
+      <c r="F21" s="49">
+        <v>3.2996709966023899E-2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>-8.5563079922705981E-2</v>
+      </c>
+      <c r="H21" s="49">
+        <v>3.653652016227029E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="79"/>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="9">
+        <v>600</v>
+      </c>
+      <c r="E22" s="8">
+        <v>-9.1014006082851789E-2</v>
+      </c>
+      <c r="F22" s="49">
+        <v>3.6029150255473402E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>-7.6394017624696359E-2</v>
+      </c>
+      <c r="H22" s="49">
+        <v>3.7977749430818171E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="79"/>
+      <c r="B23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="9">
+        <v>600</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-8.9227163711629226E-2</v>
+      </c>
+      <c r="F23" s="49">
+        <v>2.6494842652541178E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-7.3595002379375024E-2</v>
+      </c>
+      <c r="H23" s="49">
+        <v>3.0432471899508769E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="9">
+        <v>500</v>
+      </c>
+      <c r="E24" s="8">
+        <v>-3.0070399308517293E-2</v>
+      </c>
+      <c r="F24" s="49">
+        <v>1.185753858945021E-2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>-2.2071635232526789E-2</v>
+      </c>
+      <c r="H24" s="49">
+        <v>1.1749677587867508E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="79"/>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="9">
+        <v>500</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-9.1305135597465503E-2</v>
+      </c>
+      <c r="F25" s="49">
+        <v>1.3460880184289164E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>-7.858280322820492E-2</v>
+      </c>
+      <c r="H25" s="49">
+        <v>1.469597480505833E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="79"/>
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="9">
+        <v>300</v>
+      </c>
+      <c r="E26" s="8">
+        <v>-7.3325225358109966E-2</v>
+      </c>
+      <c r="F26" s="49">
+        <v>5.1442805039269672E-3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>-7.2017172684312944E-2</v>
+      </c>
+      <c r="H26" s="49">
+        <v>7.9928368693800364E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="79"/>
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="9">
+        <v>500</v>
+      </c>
+      <c r="E27" s="8">
+        <v>-0.18445937648028912</v>
+      </c>
+      <c r="F27" s="49">
+        <v>5.1556592473779049E-2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>-0.17361449007395874</v>
+      </c>
+      <c r="H27" s="49">
+        <v>6.7323204691160585E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="73"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25">
+        <f>AVERAGE(E3:E27)</f>
+        <v>-7.0421093503043361E-2</v>
+      </c>
+      <c r="F28" s="50">
+        <f t="shared" ref="F28:H28" si="0">AVERAGE(F3:F27)</f>
+        <v>2.2579594697382323E-2</v>
+      </c>
+      <c r="G28" s="25">
+        <f t="shared" si="0"/>
+        <v>-5.9833502509802322E-2</v>
+      </c>
+      <c r="H28" s="50">
+        <f t="shared" si="0"/>
+        <v>2.4998873068029143E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="70"/>
+      <c r="E29" s="52">
+        <v>1.04</v>
+      </c>
+      <c r="F29" s="78">
+        <v>1.07</v>
+      </c>
+      <c r="G29" s="52">
+        <v>1.17</v>
+      </c>
+      <c r="H29" s="78">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="71"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54">
+        <v>0.95</v>
+      </c>
+      <c r="F30" s="54">
+        <v>0.98</v>
+      </c>
+      <c r="G30" s="54">
+        <v>0.83</v>
+      </c>
+      <c r="H30" s="54">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABCB2E6-E1D6-4D4E-9F4C-3BE9A44B1252}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="48" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="48" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="48" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="48" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="48" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="48" customWidth="1"/>
     <col min="9" max="11" width="9" style="48"/>
     <col min="12" max="12" width="9.5" style="48" bestFit="1" customWidth="1"/>
@@ -1930,7 +2731,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="65" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B1" s="67" t="s">
         <v>0</v>
@@ -1942,41 +2743,41 @@
         <v>2</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
+      <c r="A2" s="72"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
       <c r="D2" s="69"/>
-      <c r="E2" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>66</v>
+      <c r="E2" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="80" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D3" s="9">
         <v>150</v>
@@ -1995,14 +2796,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A4" s="79"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D4" s="9">
         <v>150</v>
@@ -2021,14 +2820,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="79" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D5" s="9">
         <v>500</v>
@@ -2047,14 +2846,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="A6" s="79"/>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D6" s="9">
         <v>600</v>
@@ -2073,14 +2870,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="A7" s="79"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D7" s="9">
         <v>500</v>
@@ -2099,14 +2894,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="A8" s="79"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D8" s="9">
         <v>240</v>
@@ -2125,14 +2918,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="79" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D9" s="9">
         <v>240</v>
@@ -2151,14 +2944,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="A10" s="79"/>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D10" s="9">
         <v>500</v>
@@ -2177,14 +2968,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="A11" s="79"/>
       <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D11" s="9">
         <v>600</v>
@@ -2203,14 +2992,12 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="A12" s="79"/>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="D12" s="9">
         <v>500</v>
@@ -2229,14 +3016,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="A13" s="79"/>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D13" s="9">
         <v>300</v>
@@ -2255,14 +3040,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="79" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D14" s="9">
         <v>500</v>
@@ -2281,14 +3066,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="A15" s="79"/>
       <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D15" s="9">
         <v>500</v>
@@ -2307,14 +3090,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="A16" s="79"/>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D16" s="9">
         <v>600</v>
@@ -2333,14 +3114,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>47</v>
-      </c>
+      <c r="A17" s="79"/>
       <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="D17" s="9">
         <v>300</v>
@@ -2359,14 +3138,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="79" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D18" s="9">
         <v>600</v>
@@ -2385,14 +3164,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A19" s="79"/>
       <c r="B19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D19" s="9">
         <v>600</v>
@@ -2411,14 +3188,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A20" s="79"/>
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D20" s="9">
         <v>600</v>
@@ -2437,14 +3212,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A21" s="79"/>
       <c r="B21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D21" s="9">
         <v>600</v>
@@ -2463,14 +3236,12 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A22" s="79"/>
       <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D22" s="9">
         <v>600</v>
@@ -2489,14 +3260,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A23" s="79"/>
       <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D23" s="9">
         <v>600</v>
@@ -2515,14 +3284,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="79" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D24" s="9">
         <v>500</v>
@@ -2541,14 +3310,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="A25" s="79"/>
       <c r="B25" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D25" s="9">
         <v>500</v>
@@ -2567,14 +3334,12 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="A26" s="79"/>
       <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D26" s="9">
         <v>300</v>
@@ -2593,14 +3358,12 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="A27" s="79"/>
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D27" s="9">
         <v>500</v>
@@ -2619,12 +3382,12 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="25">
         <f>AVERAGE(E3:E27)</f>
         <v>-7.0421093503043361E-2</v>
@@ -2643,57 +3406,63 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="71"/>
+      <c r="B29" s="70"/>
       <c r="E29" s="52">
         <v>1.04</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="78">
         <v>1.07</v>
       </c>
       <c r="G29" s="52">
         <v>1.17</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="78">
         <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55">
+      <c r="B30" s="71"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54">
         <v>0.95</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="54">
         <v>0.98</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="54">
         <v>0.83</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="54">
         <v>0.93</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
+      <c r="A31" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2701,7 +3470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E2ACBD-9693-4F03-81F0-E0BAC59F41D0}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2936,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E6407F-D1A8-4830-99F0-9429777EA05C}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3129,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CC2FAF-ADCB-4685-9680-84E2B4AEF22E}">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -3139,53 +3908,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9" style="58"/>
-    <col min="7" max="7" width="0" style="58" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="58"/>
-    <col min="9" max="10" width="0" style="58" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="58" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="58"/>
+    <col min="1" max="1" width="5.25" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="56"/>
+    <col min="7" max="7" width="0" style="56" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="56"/>
+    <col min="9" max="10" width="0" style="56" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="56" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62" t="s">
+      <c r="C1" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="60" t="s">
         <v>69</v>
+      </c>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8">
         <v>-2.3199999999999998E-2</v>
@@ -3210,17 +3979,17 @@
       <c r="K2" s="8">
         <v>-6.8159221166208081E-2</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C3" s="8">
         <v>-3.3799999999999997E-2</v>
@@ -3245,17 +4014,17 @@
       <c r="K3" s="8">
         <v>-5.8463200647483539E-2</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8">
         <v>-1.38E-2</v>
@@ -3280,17 +4049,17 @@
       <c r="K4" s="8">
         <v>-3.0070399308517293E-2</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8">
         <v>-8.0299999999999996E-2</v>
@@ -3315,17 +4084,17 @@
       <c r="K5" s="8">
         <v>-7.3325225358109966E-2</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" s="8">
         <v>-9.5899999999999999E-2</v>
@@ -3350,10 +4119,10 @@
       <c r="K6" s="8">
         <v>-0.18445937648028912</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="s">
@@ -3396,10 +4165,10 @@
         <f t="shared" si="0"/>
         <v>-8.2895484592121593E-2</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="76" t="s">
@@ -3431,43 +4200,43 @@
       <c r="K8" s="52">
         <v>1.04</v>
       </c>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="77"/>
-      <c r="C9" s="61">
+      <c r="C9" s="59">
         <f>(100+99+99)/3/100</f>
         <v>0.99333333333333329</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="59">
         <v>0.99</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="59">
         <v>0.98</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="59">
         <f>(195+195+197)/3/100</f>
         <v>1.9566666666666666</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59">
         <v>1.03</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59">
         <v>0.95</v>
       </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -3476,33 +4245,33 @@
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="57">
         <v>-0.11</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="57">
         <v>-0.13869999999999999</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="57">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="57">
         <v>-0.14360000000000001</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="57">
         <v>-8.4099999999999994E-2</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="57">
         <v>-0.14219999999999999</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
       <c r="K13" s="8">
         <v>-9.1305135597465503E-2</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
